--- a/va_facility_data_2025-02-20/Mexico VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Mexico%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Mexico VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Mexico%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="R46e01df1778c436c8920ebac354579a6"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R48b7676f2c89476d9ce691748a3f493a"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="Rb188ac6c68d248a7bcfc5b0320113846"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="R0af2a49b853f46ce8bd8c2a60444131b"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="Reeb355bca7524c9fb53f642aa5b4dfe9"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="R2c5a8a9079604efbb8572716b52cae33"/>
   </x:sheets>
 </x:workbook>
 </file>
